--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H2">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I2">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J2">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N2">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O2">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P2">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q2">
-        <v>6.901716889018778</v>
+        <v>15.72648085218833</v>
       </c>
       <c r="R2">
-        <v>62.115452001169</v>
+        <v>141.538327669695</v>
       </c>
       <c r="S2">
-        <v>0.01796016470503996</v>
+        <v>0.03314708005267955</v>
       </c>
       <c r="T2">
-        <v>0.01796016470503996</v>
+        <v>0.03314708005267955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H3">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I3">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J3">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.824479</v>
       </c>
       <c r="O3">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P3">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q3">
-        <v>64.79219583912212</v>
+        <v>61.59429350935056</v>
       </c>
       <c r="R3">
-        <v>583.129762552099</v>
+        <v>554.348641584155</v>
       </c>
       <c r="S3">
-        <v>0.1686071056787841</v>
+        <v>0.1298237664822887</v>
       </c>
       <c r="T3">
-        <v>0.1686071056787841</v>
+        <v>0.1298237664822887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H4">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I4">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J4">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N4">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O4">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P4">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q4">
-        <v>9.068191539013444</v>
+        <v>14.89017858844389</v>
       </c>
       <c r="R4">
-        <v>81.61372385112101</v>
+        <v>134.011607295995</v>
       </c>
       <c r="S4">
-        <v>0.02359792733264173</v>
+        <v>0.03138438575729834</v>
       </c>
       <c r="T4">
-        <v>0.02359792733264173</v>
+        <v>0.03138438575729834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>250.353271</v>
       </c>
       <c r="I5">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J5">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N5">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O5">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P5">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q5">
-        <v>20.22156222224211</v>
+        <v>48.46981193413567</v>
       </c>
       <c r="R5">
-        <v>181.994060000179</v>
+        <v>436.228307407221</v>
       </c>
       <c r="S5">
-        <v>0.05262206403779571</v>
+        <v>0.1021609825758034</v>
       </c>
       <c r="T5">
-        <v>0.0526220640377957</v>
+        <v>0.1021609825758034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>250.353271</v>
       </c>
       <c r="I6">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J6">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>6.824479</v>
       </c>
       <c r="O6">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P6">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q6">
         <v>189.8367378356455</v>
@@ -821,10 +821,10 @@
         <v>1708.530640520809</v>
       </c>
       <c r="S6">
-        <v>0.4940073801086348</v>
+        <v>0.4001234354411894</v>
       </c>
       <c r="T6">
-        <v>0.4940073801086348</v>
+        <v>0.4001234354411894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>250.353271</v>
       </c>
       <c r="I7">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J7">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N7">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O7">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P7">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q7">
-        <v>26.56918595735678</v>
+        <v>45.89228592404011</v>
       </c>
       <c r="R7">
-        <v>239.122673616211</v>
+        <v>413.030573316361</v>
       </c>
       <c r="S7">
-        <v>0.06914032602991987</v>
+        <v>0.09672826931989317</v>
       </c>
       <c r="T7">
-        <v>0.06914032602991987</v>
+        <v>0.09672826931989319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H8">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I8">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J8">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N8">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O8">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P8">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q8">
-        <v>2.134454730262223</v>
+        <v>8.390143765689</v>
       </c>
       <c r="R8">
-        <v>19.21009257236</v>
+        <v>75.51129389120099</v>
       </c>
       <c r="S8">
-        <v>0.005554437993820882</v>
+        <v>0.01768410680486631</v>
       </c>
       <c r="T8">
-        <v>0.005554437993820882</v>
+        <v>0.01768410680486632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H9">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I9">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J9">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>6.824479</v>
       </c>
       <c r="O9">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P9">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q9">
-        <v>20.03791391572889</v>
+        <v>32.860814987581</v>
       </c>
       <c r="R9">
-        <v>180.34122524156</v>
+        <v>295.747334888229</v>
       </c>
       <c r="S9">
-        <v>0.05214416065725757</v>
+        <v>0.06926152616261075</v>
       </c>
       <c r="T9">
-        <v>0.05214416065725758</v>
+        <v>0.06926152616261076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H10">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I10">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J10">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N10">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O10">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P10">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q10">
-        <v>2.804468023915555</v>
+        <v>7.943972985948999</v>
       </c>
       <c r="R10">
-        <v>25.24021221524</v>
+        <v>71.495756873541</v>
       </c>
       <c r="S10">
-        <v>0.007297996778117956</v>
+        <v>0.01674370197480859</v>
       </c>
       <c r="T10">
-        <v>0.007297996778117957</v>
+        <v>0.01674370197480859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H11">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I11">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J11">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2423163333333334</v>
+        <v>0.580817</v>
       </c>
       <c r="N11">
-        <v>0.7269490000000001</v>
+        <v>1.742451</v>
       </c>
       <c r="O11">
-        <v>0.08545736829972227</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="P11">
-        <v>0.08545736829972225</v>
+        <v>0.1705489461834183</v>
       </c>
       <c r="Q11">
-        <v>3.581751306393222</v>
+        <v>8.329732602307667</v>
       </c>
       <c r="R11">
-        <v>32.235761757539</v>
+        <v>74.96759342076901</v>
       </c>
       <c r="S11">
-        <v>0.009320701563065709</v>
+        <v>0.0175567767500691</v>
       </c>
       <c r="T11">
-        <v>0.009320701563065709</v>
+        <v>0.0175567767500691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H12">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I12">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J12">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>6.824479</v>
       </c>
       <c r="O12">
-        <v>0.8022598770432592</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="P12">
-        <v>0.8022598770432591</v>
+        <v>0.6679715536912479</v>
       </c>
       <c r="Q12">
-        <v>33.62489882192989</v>
+        <v>32.62420878410011</v>
       </c>
       <c r="R12">
-        <v>302.624089397369</v>
+        <v>293.617879056901</v>
       </c>
       <c r="S12">
-        <v>0.08750123059858271</v>
+        <v>0.06876282560515895</v>
       </c>
       <c r="T12">
-        <v>0.08750123059858271</v>
+        <v>0.06876282560515895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H13">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I13">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J13">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3183803333333333</v>
+        <v>0.5499303333333333</v>
       </c>
       <c r="N13">
-        <v>0.955141</v>
+        <v>1.649791</v>
       </c>
       <c r="O13">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253337</v>
       </c>
       <c r="P13">
-        <v>0.1122827546570186</v>
+        <v>0.1614795001253338</v>
       </c>
       <c r="Q13">
-        <v>4.706076388494555</v>
+        <v>7.886774365358777</v>
       </c>
       <c r="R13">
-        <v>42.354687496451</v>
+        <v>70.98096928822901</v>
       </c>
       <c r="S13">
-        <v>0.01224650451633903</v>
+        <v>0.01662314307333362</v>
       </c>
       <c r="T13">
-        <v>0.01224650451633903</v>
+        <v>0.01662314307333363</v>
       </c>
     </row>
   </sheetData>
